--- a/MD/BostonChildrens/validation/BCH.xlsx
+++ b/MD/BostonChildrens/validation/BCH.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testuser/pcdc/pcdc/_dictionaries/MD/BostonChildrens/validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E45259-3386-6D4B-B0CE-F663CBDBB1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="67200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -157,15 +163,15 @@
     <t>treatment</t>
   </si>
   <si>
+    <t>MEASUREMENT_TYPE</t>
+  </si>
+  <si>
+    <t>MEASUREMENT_UNIT</t>
+  </si>
+  <si>
     <t>PREDICT_SUBJECT_ID</t>
   </si>
   <si>
-    <t>MEASUREMENT_TYPE</t>
-  </si>
-  <si>
-    <t>MEASUREMENT_UNIT</t>
-  </si>
-  <si>
     <t>ETHNICITY</t>
   </si>
   <si>
@@ -190,33 +196,33 @@
     <t>SOURCE</t>
   </si>
   <si>
+    <t>ALTERATION_TYPE</t>
+  </si>
+  <si>
+    <t>CAUSITIVE_ALTERATION</t>
+  </si>
+  <si>
+    <t>CYTOGENETIC_LOCATION</t>
+  </si>
+  <si>
+    <t>HGVS_ACC</t>
+  </si>
+  <si>
+    <t>HGVS_CODING</t>
+  </si>
+  <si>
+    <t>HGVS_PROTEIN</t>
+  </si>
+  <si>
+    <t>LABORATORY_NAME</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
     <t>PREDICT_ID</t>
   </si>
   <si>
-    <t>ALTERATION_TYPE</t>
-  </si>
-  <si>
-    <t>CAUSITIVE_ALTERATION</t>
-  </si>
-  <si>
-    <t>CYTOGENETIC_LOCATION</t>
-  </si>
-  <si>
-    <t>HGVS_ACC</t>
-  </si>
-  <si>
-    <t>HGVS_CODING</t>
-  </si>
-  <si>
-    <t>HGVS_PROTEIN</t>
-  </si>
-  <si>
-    <t>LABORATORY_NAME</t>
-  </si>
-  <si>
-    <t>METHOD</t>
-  </si>
-  <si>
     <t>REPORTED_SIGNIFICANCE</t>
   </si>
   <si>
@@ -226,24 +232,36 @@
     <t>HOME_TESTING</t>
   </si>
   <si>
+    <t>RESULT_NUMERIC</t>
+  </si>
+  <si>
+    <t>RESULT_UNIT</t>
+  </si>
+  <si>
+    <t>TEST_TYPE</t>
+  </si>
+  <si>
     <t>THRESHOLD_VALUE</t>
   </si>
   <si>
-    <t>RESULT_NUMERIC</t>
-  </si>
-  <si>
-    <t>RESULT_UNIT</t>
-  </si>
-  <si>
-    <t>TEST_TYPE</t>
-  </si>
-  <si>
     <t>MEDICATION_CLASS</t>
   </si>
   <si>
     <t>MEDICATION_NAME</t>
   </si>
   <si>
+    <t>Invalid PermissibleValue 'BMI Z-score Value'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'BMI Z-score percentile'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Height'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'kg/m2'</t>
+  </si>
+  <si>
     <t>Invalid Variable 'PREDICT_SUBJECT_ID'. Expected one of: AGE_AT, AGE_PRECISION, AGE_UNIT, HONEST_BROKER_SUBJECT_ID, MEASUREMENT_NUMERIC, MEASUREMENT_TYPE, MEASUREMENT_UNIT, Z_SCORE</t>
   </si>
   <si>
@@ -349,27 +367,15 @@
     <t>Invalid Variable 'PREDICT_SUBJECT_ID' with invalid PermissibleValue 'BCH-34'</t>
   </si>
   <si>
-    <t>Invalid PermissibleValue 'BMI Z-score Value'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'BMI Z-score percentile'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Height'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'kg/m2'</t>
+    <t>Invalid PermissibleValue 'Choose Not to Answer'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Don't Know'</t>
   </si>
   <si>
     <t>Invalid Variable 'PREDICT_SUBJECT_ID'. Expected one of: ETHNICITY, HONEST_BROKER_SUBJECT_ID, RACE, SEX</t>
   </si>
   <si>
-    <t>Invalid PermissibleValue 'Choose Not to Answer'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Don't Know'</t>
-  </si>
-  <si>
     <t>Invalid PermissibleValue 'Another Race'</t>
   </si>
   <si>
@@ -385,12 +391,12 @@
     <t>Invalid PermissibleValue 'M'</t>
   </si>
   <si>
+    <t>Invalid PermissibleValue 'Never'</t>
+  </si>
+  <si>
     <t>Invalid Variable 'PREDICT_SUBJECT_ID'. Expected one of: AGE_AT, AGE_PRECISION, AGE_UNIT, CGM_RANGE, DIABETES_STATUS, DIET, DKA, EXERCISE, HONEST_BROKER_SUBJECT_ID, HYPOGLYCEMIA_FREQUENCY, SEVERE_HYPOGLYCEMIA_FREQUENCY, TIME_IN_RANGE</t>
   </si>
   <si>
-    <t>Invalid PermissibleValue 'Never'</t>
-  </si>
-  <si>
     <t>Invalid Variable 'AGE'. Expected one of: CONDITION, HONEST_BROKER_SUBJECT_ID, RELATION, RELATION_HONEST_BROKER_SUBJECT_ID, SOURCE</t>
   </si>
   <si>
@@ -514,6 +520,81 @@
     <t>Invalid PermissibleValue 'Clinical diagnosis'</t>
   </si>
   <si>
+    <t>Invalid PermissibleValue '1.4 Mb deletion at chr17q12'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Frameshift'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Missense'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Nonsense'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Splicing'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Uncertain'</t>
+  </si>
+  <si>
+    <t>Warning: Variable 'CYTOGENETIC_LOCATION' is a 'String' DataType</t>
+  </si>
+  <si>
+    <t>Warning: Variable 'HGVS_ACC' is a 'String' DataType</t>
+  </si>
+  <si>
+    <t>Warning: Variable 'HGVS_CODING' is a 'String' DataType</t>
+  </si>
+  <si>
+    <t>Warning: Variable 'HGVS_PROTEIN' is a 'String' DataType</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Athena Diagnostics'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Gene Dx'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Prevention Genetics'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'The University of Chicago'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'University of Chicago'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Clinical Exome Sequence Anaylsis'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'DNA Sequencing and Deletion Test'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'DNA squence Anaylsis'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Familial targeted DNA evalotion'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'GCK(MODY) DNA squencing and deletion'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'HNF1B/TCF2(MODY 5) DNA Squencing &amp; Deletion'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'MODY panel'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Neonatal Diabetes Melltius Evaluation'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Sequencing, Deleation, &amp; Duplucation Anaylsis'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Targeted Anaylsis'</t>
+  </si>
+  <si>
     <t>Invalid Variable 'PREDICT_ID'. Expected one of: AGE_AT, AGE_PRECISION, AGE_UNIT, ALLELIC_STATE, ALTERATION_EFFECT, ALTERATION_REGION, ALTERATION_TYPE, CAUSITIVE_ALTERATION, CYTOGENETIC_LOCATION, EXTERNAL_REF_ID, EXTERNAL_REF_ID_SYSTEM, GENE, HGVS_ACC, HGVS_CODING, HGVS_GENOMIC, HGVS_PROTEIN, HONEST_BROKER_SUBJECT_ID, ISCN, LABORATORY_NAME, MAF_NUMERIC, METHOD, MOSAICISM, REPORTED_SIGNIFICANCE, SAMPLE_TYPE, STATUS</t>
   </si>
   <si>
@@ -619,81 +700,6 @@
     <t>Invalid Variable 'PREDICT_ID' with invalid PermissibleValue 'BCH-34'</t>
   </si>
   <si>
-    <t>Invalid PermissibleValue '1.4 Mb deletion at chr17q12'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Frameshift'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Missense'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Nonsense'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Splicing'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Uncertain'</t>
-  </si>
-  <si>
-    <t>Warning: Variable 'CYTOGENETIC_LOCATION' is a 'String' DataType</t>
-  </si>
-  <si>
-    <t>Warning: Variable 'HGVS_ACC' is a 'String' DataType</t>
-  </si>
-  <si>
-    <t>Warning: Variable 'HGVS_CODING' is a 'String' DataType</t>
-  </si>
-  <si>
-    <t>Warning: Variable 'HGVS_PROTEIN' is a 'String' DataType</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Athena Diagnostics'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Gene Dx'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Prevention Genetics'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'The University of Chicago'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'University of Chicago'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Clinical Exome Sequence Anaylsis'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'DNA Sequencing and Deletion Test'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'DNA squence Anaylsis'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Familial targeted DNA evalotion'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'GCK(MODY) DNA squencing and deletion'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'HNF1B/TCF2(MODY 5) DNA Squencing &amp; Deletion'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'MODY panel'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Neonatal Diabetes Melltius Evaluation'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Sequencing, Deleation, &amp; Duplucation Anaylsis'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Targeted Anaylsis'</t>
-  </si>
-  <si>
     <t>Invalid PermissibleValue 'VUS'</t>
   </si>
   <si>
@@ -718,177 +724,177 @@
     <t>Invalid Variable 'HOME_TESTING'. Expected one of: AGE_AT, AGE_PRECISION, AGE_UNIT, FASTING_STATUS, HONEST_BROKER_SUBJECT_ID, MEASUREMENT_TYPE, METHOD, POST_GLUCOSE_TIMEPOINT, POST_GLUCOSE_TIMEPOINT_UNIT, REFERENCE_RANGE, RESULT_INTERPRETATION, RESULT_MODIFIER, RESULT_NUMERIC, RESULT_UNIT, TEST_TYPE</t>
   </si>
   <si>
+    <t>Invalid Variable 'HOME_TESTING' with invalid PermissibleValue ''</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'HOME_TESTING' with invalid PermissibleValue 'No'</t>
+  </si>
+  <si>
     <t>Invalid Variable 'PREDICT_SUBJECT_ID'. Expected one of: AGE_AT, AGE_PRECISION, AGE_UNIT, FASTING_STATUS, HONEST_BROKER_SUBJECT_ID, MEASUREMENT_TYPE, METHOD, POST_GLUCOSE_TIMEPOINT, POST_GLUCOSE_TIMEPOINT_UNIT, REFERENCE_RANGE, RESULT_INTERPRETATION, RESULT_MODIFIER, RESULT_NUMERIC, RESULT_UNIT, TEST_TYPE</t>
   </si>
   <si>
+    <t>Warning: Variable 'RESULT_NUMERIC' is a 'String' DataType</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'IU/mL'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'NOT DEFINED IN SOURCE'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'mg/g'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'unit/L'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'unit/mL'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'ALANINE AMINOTRANSFERASE (SGPT) (U/L) IN SER/PLAS'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'ASPARTATE AMINOTRANSFERASE (SGOT) (U/L) IN SER/PLAS'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'AST (Aspartate Aminotransferase)'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'BUN'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Beta-Hydroxybutyric Acid'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'C-Peptide, Serum'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'CHOLESTEROL IN LDL (MG/DL) IN SERUM OR PLASMA BY CALCULATION'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'CHOLESTEROL, FASTING'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'CHOLESTEROL, LDL DIRECT OUT'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'CREATININE (MG/DL) IN SER/PLAS'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'CREATININE (MG/DL) IN URINE'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'CREATININE, PLASMA'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'CREATININE, URINE'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Cholesterol'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Cholesterol/HDL'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Creatinine'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'GAD Ab'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'GLUCOSE (MG/DL) IN SER/PLAS'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'GLUCOSE'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'GLUCOSE, WHOLE BLOOD'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Glucose, Blood POCT'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Glucose, Fasting'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Glucose, Plasma'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'HDL CHOLESTEROL, FASTING'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'HDL, Fasting'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'HEMOGLOBIN A1C/HEMOGLOBIN TOTAL IN BLOOD'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Hemoglobin A1c Greater Than 14.0%POCT'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Hemoglobin A1c Result POCT'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Hgb A1c'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'IA2 Ab'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Insul Ab'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'LDL Direct'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'LDL, Fasting'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'MAGNESIUM (MG/DL) IN SER/PLAS'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'MICROALBUMIN (MG/L) IN URINE'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'MICROALBUMIN/CREATININE (MG/G) IN URINE'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Magnesium'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Magnesium, Urine'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Microalbumin, Rand or &lt;24Hr coll, Urine'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'POCT GLUCOSE, VENOUS'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'POCT GLUCOSE, WHOLE BLOOD'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'POCT HEMOGLOBIN A1C'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'POTASSIUM (MMOL/L) IN SER/PLAS'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Potassium Level'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'TRIGLYCERIDES, FASTING'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'UREA NITROGEN (MG/DL) IN SER/PLAS'</t>
+  </si>
+  <si>
+    <t>Invalid PermissibleValue 'Zinc Transport'</t>
+  </si>
+  <si>
     <t>Invalid Variable 'THRESHOLD_VALUE'. Expected one of: AGE_AT, AGE_PRECISION, AGE_UNIT, FASTING_STATUS, HONEST_BROKER_SUBJECT_ID, MEASUREMENT_TYPE, METHOD, POST_GLUCOSE_TIMEPOINT, POST_GLUCOSE_TIMEPOINT_UNIT, REFERENCE_RANGE, RESULT_INTERPRETATION, RESULT_MODIFIER, RESULT_NUMERIC, RESULT_UNIT, TEST_TYPE</t>
   </si>
   <si>
-    <t>Invalid Variable 'HOME_TESTING' with invalid PermissibleValue ''</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'HOME_TESTING' with invalid PermissibleValue 'No'</t>
-  </si>
-  <si>
-    <t>Warning: Variable 'RESULT_NUMERIC' is a 'String' DataType</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'IU/mL'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'NOT DEFINED IN SOURCE'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'mg/g'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'unit/L'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'unit/mL'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'ALANINE AMINOTRANSFERASE (SGPT) (U/L) IN SER/PLAS'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'ASPARTATE AMINOTRANSFERASE (SGOT) (U/L) IN SER/PLAS'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'AST (Aspartate Aminotransferase)'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'BUN'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Beta-Hydroxybutyric Acid'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'C-Peptide, Serum'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'CHOLESTEROL IN LDL (MG/DL) IN SERUM OR PLASMA BY CALCULATION'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'CHOLESTEROL, FASTING'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'CHOLESTEROL, LDL DIRECT OUT'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'CREATININE (MG/DL) IN SER/PLAS'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'CREATININE (MG/DL) IN URINE'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'CREATININE, PLASMA'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'CREATININE, URINE'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Cholesterol'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Cholesterol/HDL'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Creatinine'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'GAD Ab'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'GLUCOSE (MG/DL) IN SER/PLAS'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'GLUCOSE'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'GLUCOSE, WHOLE BLOOD'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Glucose, Blood POCT'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Glucose, Fasting'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Glucose, Plasma'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'HDL CHOLESTEROL, FASTING'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'HDL, Fasting'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'HEMOGLOBIN A1C/HEMOGLOBIN TOTAL IN BLOOD'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Hemoglobin A1c Greater Than 14.0%POCT'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Hemoglobin A1c Result POCT'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Hgb A1c'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'IA2 Ab'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Insul Ab'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'LDL Direct'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'LDL, Fasting'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'MAGNESIUM (MG/DL) IN SER/PLAS'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'MICROALBUMIN (MG/L) IN URINE'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'MICROALBUMIN/CREATININE (MG/G) IN URINE'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Magnesium'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Magnesium, Urine'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Microalbumin, Rand or &lt;24Hr coll, Urine'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'POCT GLUCOSE, VENOUS'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'POCT GLUCOSE, WHOLE BLOOD'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'POCT HEMOGLOBIN A1C'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'POTASSIUM (MMOL/L) IN SER/PLAS'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Potassium Level'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'TRIGLYCERIDES, FASTING'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'UREA NITROGEN (MG/DL) IN SER/PLAS'</t>
-  </si>
-  <si>
-    <t>Invalid PermissibleValue 'Zinc Transport'</t>
-  </si>
-  <si>
     <t>Invalid Variable 'THRESHOLD_VALUE' with invalid PermissibleValue ''</t>
   </si>
   <si>
@@ -907,71 +913,71 @@
     <t>Invalid Variable 'MEDICATION_CLASS'. Expected one of: AGE_AT_START, AGE_AT_STOP, AGE_PRECISION, AGE_UNIT, DM_MEDICATION_CLASS, FREQUENCY, HONEST_BROKER_SUBJECT_ID, MEDICATION_CLASS_OTHER, MEDICATION_CODE, MEDICATION_CONCENTRATION, MEDICATION_DOSE, MEDICATION_NAME, MEDICATION_UNIT, REASON_STOP, ROUTE</t>
   </si>
   <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'GLP-1 receptor agonists'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Insulin, fast acting'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Insulin, intermediate'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Insulin, long acting'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Insulin, rapid acting'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'SGLT-2 inhibitors'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Vasodilator'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'angiotensin II inhibitors'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'angiotensin converting enzyme (ACE) inhibitors'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'antihyperlipidemic agents'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'beta-adrenergic blocking agents'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'biguanides'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'calcium channel blocking agents'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'dipeptidyl peptidase 4 inhibitors'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'diuretics'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'meglitinides'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'sulfonylureas'</t>
+  </si>
+  <si>
+    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'thyroid hormones'</t>
+  </si>
+  <si>
+    <t>Warning: Variable 'MEDICATION_NAME' is a 'String' DataType</t>
+  </si>
+  <si>
     <t>Invalid Variable 'PREDICT_SUBJECT_ID'. Expected one of: AGE_AT_START, AGE_AT_STOP, AGE_PRECISION, AGE_UNIT, DM_MEDICATION_CLASS, FREQUENCY, HONEST_BROKER_SUBJECT_ID, MEDICATION_CLASS_OTHER, MEDICATION_CODE, MEDICATION_CONCENTRATION, MEDICATION_DOSE, MEDICATION_NAME, MEDICATION_UNIT, REASON_STOP, ROUTE</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'GLP-1 receptor agonists'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Insulin, fast acting'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Insulin, intermediate'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Insulin, long acting'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Insulin, rapid acting'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'SGLT-2 inhibitors'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'Vasodilator'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'angiotensin II inhibitors'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'angiotensin converting enzyme (ACE) inhibitors'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'antihyperlipidemic agents'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'beta-adrenergic blocking agents'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'biguanides'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'calcium channel blocking agents'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'dipeptidyl peptidase 4 inhibitors'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'diuretics'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'meglitinides'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'sulfonylureas'</t>
-  </si>
-  <si>
-    <t>Invalid Variable 'MEDICATION_CLASS' with invalid PermissibleValue 'thyroid hormones'</t>
-  </si>
-  <si>
-    <t>Warning: Variable 'MEDICATION_NAME' is a 'String' DataType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,13 +1040,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1078,7 +1092,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1112,6 +1126,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1146,9 +1161,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1321,14 +1337,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346:XFD347"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1359,10 +1382,10 @@
         <v>76</v>
       </c>
       <c r="E2">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1376,10 +1399,10 @@
         <v>77</v>
       </c>
       <c r="E3">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1393,10 +1416,10 @@
         <v>78</v>
       </c>
       <c r="E4">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1404,16 +1427,16 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>
       </c>
       <c r="E5">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1421,16 +1444,16 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
       </c>
       <c r="E6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1438,16 +1461,16 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
       </c>
       <c r="E7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1455,16 +1478,16 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>82</v>
       </c>
       <c r="E8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1472,16 +1495,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
       </c>
       <c r="E9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1489,16 +1512,16 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1506,16 +1529,16 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
       <c r="E11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1523,16 +1546,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>86</v>
       </c>
       <c r="E12">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1540,16 +1563,16 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
       </c>
       <c r="E13">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1557,16 +1580,16 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
       </c>
       <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1574,16 +1597,16 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>89</v>
       </c>
       <c r="E15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1591,16 +1614,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>90</v>
       </c>
       <c r="E16">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1608,16 +1631,16 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>91</v>
       </c>
       <c r="E17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1625,16 +1648,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>92</v>
       </c>
       <c r="E18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1642,16 +1665,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>93</v>
       </c>
       <c r="E19">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1659,16 +1682,16 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>94</v>
       </c>
       <c r="E20">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1676,16 +1699,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
       </c>
       <c r="E21">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1693,16 +1716,16 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>96</v>
       </c>
       <c r="E22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1710,16 +1733,16 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>97</v>
       </c>
       <c r="E23">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1727,16 +1750,16 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>98</v>
       </c>
       <c r="E24">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1744,16 +1767,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
       </c>
       <c r="E25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1761,16 +1784,16 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>100</v>
       </c>
       <c r="E26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1778,16 +1801,16 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>101</v>
       </c>
       <c r="E27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1795,16 +1818,16 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>102</v>
       </c>
       <c r="E28">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1812,16 +1835,16 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
       </c>
       <c r="E29">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
         <v>104</v>
@@ -1838,7 +1861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1846,16 +1869,16 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>105</v>
       </c>
       <c r="E31">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1863,7 +1886,7 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>106</v>
@@ -1872,7 +1895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1880,16 +1903,16 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>107</v>
       </c>
       <c r="E33">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1897,16 +1920,16 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>108</v>
       </c>
       <c r="E34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1914,16 +1937,16 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>109</v>
       </c>
       <c r="E35">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1931,16 +1954,16 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>110</v>
       </c>
       <c r="E36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1948,16 +1971,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>111</v>
       </c>
       <c r="E37">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1965,16 +1988,16 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
       </c>
       <c r="E38">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1982,16 +2005,16 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>113</v>
       </c>
       <c r="E39">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2005,10 +2028,10 @@
         <v>114</v>
       </c>
       <c r="E40">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2016,16 +2039,16 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
       </c>
       <c r="E41">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2033,16 +2056,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2050,16 +2073,16 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2067,16 +2090,16 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2084,16 +2107,16 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2101,16 +2124,16 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2118,16 +2141,16 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2135,16 +2158,16 @@
         <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2152,16 +2175,16 @@
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2169,16 +2192,16 @@
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2186,16 +2209,16 @@
         <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2203,16 +2226,16 @@
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2220,16 +2243,16 @@
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2237,16 +2260,16 @@
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2254,16 +2277,16 @@
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2271,16 +2294,16 @@
         <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2288,16 +2311,16 @@
         <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2305,16 +2328,16 @@
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2322,16 +2345,16 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2339,16 +2362,16 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2356,16 +2379,16 @@
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2373,16 +2396,16 @@
         <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2390,16 +2413,16 @@
         <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2407,16 +2430,16 @@
         <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2424,16 +2447,16 @@
         <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2441,16 +2464,16 @@
         <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2458,16 +2481,16 @@
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2475,16 +2498,16 @@
         <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2492,16 +2515,16 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2509,16 +2532,16 @@
         <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2526,16 +2549,16 @@
         <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2543,16 +2566,16 @@
         <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2560,16 +2583,16 @@
         <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2577,16 +2600,16 @@
         <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2594,16 +2617,16 @@
         <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2611,16 +2634,16 @@
         <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2628,16 +2651,16 @@
         <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2654,7 +2677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2671,7 +2694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2688,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2705,7 +2728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2722,7 +2745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2730,16 +2753,16 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
         <v>123</v>
       </c>
       <c r="E83">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2747,16 +2770,16 @@
         <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="E84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2764,16 +2787,16 @@
         <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2781,16 +2804,16 @@
         <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2798,16 +2821,16 @@
         <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D87" t="s">
         <v>84</v>
       </c>
       <c r="E87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2815,16 +2838,16 @@
         <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2832,16 +2855,16 @@
         <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2849,16 +2872,16 @@
         <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2866,16 +2889,16 @@
         <v>42</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2883,16 +2906,16 @@
         <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2900,16 +2923,16 @@
         <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E93">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2917,16 +2940,16 @@
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2934,16 +2957,16 @@
         <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2951,16 +2974,16 @@
         <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2968,16 +2991,16 @@
         <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D97" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2985,16 +3008,16 @@
         <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -3002,16 +3025,16 @@
         <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -3019,16 +3042,16 @@
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -3036,16 +3059,16 @@
         <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D101" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -3053,16 +3076,16 @@
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3070,16 +3093,16 @@
         <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3087,16 +3110,16 @@
         <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -3104,16 +3127,16 @@
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E105">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -3130,7 +3153,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3147,7 +3170,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3164,7 +3187,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +3204,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -3198,7 +3221,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -3232,7 +3255,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -3249,7 +3272,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3266,7 +3289,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3306,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -3300,7 +3323,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -3317,7 +3340,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -3334,7 +3357,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3351,7 +3374,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3368,7 +3391,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -3385,7 +3408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -3402,7 +3425,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -3419,7 +3442,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -3436,7 +3459,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -3453,7 +3476,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3470,7 +3493,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3487,7 +3510,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3504,7 +3527,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3521,7 +3544,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -3538,7 +3561,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>31</v>
       </c>
@@ -3555,7 +3578,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
@@ -3572,7 +3595,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -3589,7 +3612,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -3606,7 +3629,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>35</v>
       </c>
@@ -3623,7 +3646,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -3640,7 +3663,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -3657,7 +3680,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>38</v>
       </c>
@@ -3674,7 +3697,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -3691,7 +3714,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3708,7 +3731,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -3725,7 +3748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -3742,7 +3765,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -3759,7 +3782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +3799,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -3793,7 +3816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -3810,7 +3833,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -3827,7 +3850,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -3844,7 +3867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -3861,7 +3884,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -3878,7 +3901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -3895,7 +3918,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -3912,7 +3935,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -3929,7 +3952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -3946,7 +3969,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -3963,7 +3986,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -3980,7 +4003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -3997,7 +4020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>25</v>
       </c>
@@ -4014,7 +4037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -4031,7 +4054,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -4048,7 +4071,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -4065,7 +4088,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>29</v>
       </c>
@@ -4082,7 +4105,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -4099,7 +4122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -4116,7 +4139,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -4133,7 +4156,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -4150,7 +4173,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -4167,7 +4190,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -4184,7 +4207,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -4201,7 +4224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -4218,7 +4241,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>38</v>
       </c>
@@ -4235,7 +4258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -4252,7 +4275,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -4269,7 +4292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>36</v>
       </c>
@@ -4286,7 +4309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -4303,7 +4326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -4320,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -4337,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -4354,7 +4377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>36</v>
       </c>
@@ -4371,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>37</v>
       </c>
@@ -4388,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -4405,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -4422,7 +4445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -4439,7 +4462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -4456,7 +4479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>37</v>
       </c>
@@ -4473,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>38</v>
       </c>
@@ -4490,7 +4513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -4507,7 +4530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>35</v>
       </c>
@@ -4524,7 +4547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -4541,7 +4564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -4558,7 +4581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>35</v>
       </c>
@@ -4575,7 +4598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -4592,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -4609,7 +4632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>38</v>
       </c>
@@ -4626,7 +4649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -4643,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>35</v>
       </c>
@@ -4660,7 +4683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>36</v>
       </c>
@@ -4677,7 +4700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -4694,7 +4717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>38</v>
       </c>
@@ -4711,7 +4734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -4728,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>35</v>
       </c>
@@ -4745,7 +4768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>36</v>
       </c>
@@ -4762,7 +4785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -4779,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>38</v>
       </c>
@@ -4796,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>39</v>
       </c>
@@ -4813,7 +4836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -4830,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>35</v>
       </c>
@@ -4847,7 +4870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -4864,7 +4887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -4881,7 +4904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>38</v>
       </c>
@@ -4898,7 +4921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -4915,7 +4938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -4932,7 +4955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -4949,7 +4972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -4966,7 +4989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -4983,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>35</v>
       </c>
@@ -5000,7 +5023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>36</v>
       </c>
@@ -5017,7 +5040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>37</v>
       </c>
@@ -5034,7 +5057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -5051,7 +5074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -5068,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -5085,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -5102,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -5119,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>35</v>
       </c>
@@ -5136,7 +5159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>36</v>
       </c>
@@ -5153,7 +5176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -5170,7 +5193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>38</v>
       </c>
@@ -5187,7 +5210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -5204,7 +5227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>18</v>
       </c>
@@ -5221,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -5238,7 +5261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -5255,7 +5278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -5272,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -5289,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -5306,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -5323,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -5340,7 +5363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>36</v>
       </c>
@@ -5357,7 +5380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>37</v>
       </c>
@@ -5374,7 +5397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>38</v>
       </c>
@@ -5391,7 +5414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>39</v>
       </c>
@@ -5408,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -5425,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>24</v>
       </c>
@@ -5442,7 +5465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>27</v>
       </c>
@@ -5459,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>24</v>
       </c>
@@ -5476,7 +5499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -5493,7 +5516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>29</v>
       </c>
@@ -5510,7 +5533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>30</v>
       </c>
@@ -5527,7 +5550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>31</v>
       </c>
@@ -5544,7 +5567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -5561,7 +5584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>33</v>
       </c>
@@ -5578,7 +5601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -5595,7 +5618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>36</v>
       </c>
@@ -5612,7 +5635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>37</v>
       </c>
@@ -5629,7 +5652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>38</v>
       </c>
@@ -5646,7 +5669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -5663,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -5680,7 +5703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>26</v>
       </c>
@@ -5697,7 +5720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>23</v>
       </c>
@@ -5714,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>32</v>
       </c>
@@ -5731,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -5748,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -5765,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -5782,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -5799,7 +5822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -5816,7 +5839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -5833,7 +5856,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -5850,7 +5873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -5867,7 +5890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -5884,7 +5907,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -5901,7 +5924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -5918,7 +5941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>33</v>
       </c>
@@ -5935,7 +5958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>34</v>
       </c>
@@ -5952,7 +5975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>35</v>
       </c>
@@ -5969,7 +5992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>36</v>
       </c>
@@ -5986,7 +6009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>37</v>
       </c>
@@ -6003,7 +6026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>38</v>
       </c>
@@ -6020,7 +6043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>39</v>
       </c>
@@ -6037,7 +6060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -6051,10 +6074,10 @@
         <v>166</v>
       </c>
       <c r="E278">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -6071,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -6085,10 +6108,10 @@
         <v>168</v>
       </c>
       <c r="E280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -6105,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -6119,10 +6142,10 @@
         <v>170</v>
       </c>
       <c r="E282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -6130,16 +6153,16 @@
         <v>44</v>
       </c>
       <c r="C283" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D283" t="s">
         <v>171</v>
       </c>
       <c r="E283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -6147,16 +6170,16 @@
         <v>44</v>
       </c>
       <c r="C284" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D284" t="s">
         <v>172</v>
       </c>
       <c r="E284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -6164,16 +6187,16 @@
         <v>44</v>
       </c>
       <c r="C285" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D285" t="s">
         <v>173</v>
       </c>
       <c r="E285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -6181,16 +6204,16 @@
         <v>44</v>
       </c>
       <c r="C286" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D286" t="s">
         <v>174</v>
       </c>
       <c r="E286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -6198,16 +6221,16 @@
         <v>44</v>
       </c>
       <c r="C287" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D287" t="s">
         <v>175</v>
       </c>
       <c r="E287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -6215,16 +6238,16 @@
         <v>44</v>
       </c>
       <c r="C288" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D288" t="s">
         <v>176</v>
       </c>
       <c r="E288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -6232,16 +6255,16 @@
         <v>44</v>
       </c>
       <c r="C289" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D289" t="s">
         <v>177</v>
       </c>
       <c r="E289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -6249,16 +6272,16 @@
         <v>44</v>
       </c>
       <c r="C290" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D290" t="s">
         <v>178</v>
       </c>
       <c r="E290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -6266,16 +6289,16 @@
         <v>44</v>
       </c>
       <c r="C291" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D291" t="s">
         <v>179</v>
       </c>
       <c r="E291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -6283,16 +6306,16 @@
         <v>44</v>
       </c>
       <c r="C292" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D292" t="s">
         <v>180</v>
       </c>
       <c r="E292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -6300,7 +6323,7 @@
         <v>44</v>
       </c>
       <c r="C293" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D293" t="s">
         <v>181</v>
@@ -6309,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -6317,7 +6340,7 @@
         <v>44</v>
       </c>
       <c r="C294" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D294" t="s">
         <v>182</v>
@@ -6326,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -6334,16 +6357,16 @@
         <v>44</v>
       </c>
       <c r="C295" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D295" t="s">
         <v>183</v>
       </c>
       <c r="E295">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -6351,7 +6374,7 @@
         <v>44</v>
       </c>
       <c r="C296" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D296" t="s">
         <v>184</v>
@@ -6360,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -6368,7 +6391,7 @@
         <v>44</v>
       </c>
       <c r="C297" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D297" t="s">
         <v>185</v>
@@ -6377,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -6385,7 +6408,7 @@
         <v>44</v>
       </c>
       <c r="C298" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D298" t="s">
         <v>186</v>
@@ -6394,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -6402,16 +6425,16 @@
         <v>44</v>
       </c>
       <c r="C299" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D299" t="s">
         <v>187</v>
       </c>
       <c r="E299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -6419,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="C300" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D300" t="s">
         <v>188</v>
@@ -6428,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -6436,16 +6459,16 @@
         <v>44</v>
       </c>
       <c r="C301" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D301" t="s">
         <v>189</v>
       </c>
       <c r="E301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -6453,16 +6476,16 @@
         <v>44</v>
       </c>
       <c r="C302" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D302" t="s">
         <v>190</v>
       </c>
       <c r="E302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -6470,16 +6493,16 @@
         <v>44</v>
       </c>
       <c r="C303" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D303" t="s">
         <v>191</v>
       </c>
       <c r="E303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -6487,7 +6510,7 @@
         <v>44</v>
       </c>
       <c r="C304" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D304" t="s">
         <v>192</v>
@@ -6496,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -6504,7 +6527,7 @@
         <v>44</v>
       </c>
       <c r="C305" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D305" t="s">
         <v>193</v>
@@ -6513,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -6521,7 +6544,7 @@
         <v>44</v>
       </c>
       <c r="C306" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D306" t="s">
         <v>194</v>
@@ -6530,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -6538,7 +6561,7 @@
         <v>44</v>
       </c>
       <c r="C307" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D307" t="s">
         <v>195</v>
@@ -6547,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -6555,7 +6578,7 @@
         <v>44</v>
       </c>
       <c r="C308" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D308" t="s">
         <v>196</v>
@@ -6564,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -6572,7 +6595,7 @@
         <v>44</v>
       </c>
       <c r="C309" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D309" t="s">
         <v>197</v>
@@ -6581,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -6589,7 +6612,7 @@
         <v>44</v>
       </c>
       <c r="C310" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D310" t="s">
         <v>198</v>
@@ -6598,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -6606,7 +6629,7 @@
         <v>44</v>
       </c>
       <c r="C311" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D311" t="s">
         <v>199</v>
@@ -6615,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -6623,7 +6646,7 @@
         <v>44</v>
       </c>
       <c r="C312" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D312" t="s">
         <v>200</v>
@@ -6632,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -6640,7 +6663,7 @@
         <v>44</v>
       </c>
       <c r="C313" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D313" t="s">
         <v>201</v>
@@ -6649,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -6657,7 +6680,7 @@
         <v>44</v>
       </c>
       <c r="C314" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D314" t="s">
         <v>202</v>
@@ -6666,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -6674,16 +6697,16 @@
         <v>44</v>
       </c>
       <c r="C315" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D315" t="s">
         <v>203</v>
       </c>
       <c r="E315">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -6691,7 +6714,7 @@
         <v>44</v>
       </c>
       <c r="C316" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D316" t="s">
         <v>204</v>
@@ -6700,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -6708,16 +6731,16 @@
         <v>44</v>
       </c>
       <c r="C317" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D317" t="s">
         <v>205</v>
       </c>
       <c r="E317">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -6725,16 +6748,16 @@
         <v>44</v>
       </c>
       <c r="C318" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D318" t="s">
         <v>206</v>
       </c>
       <c r="E318">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -6742,16 +6765,16 @@
         <v>44</v>
       </c>
       <c r="C319" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D319" t="s">
         <v>207</v>
       </c>
       <c r="E319">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -6759,16 +6782,16 @@
         <v>44</v>
       </c>
       <c r="C320" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D320" t="s">
         <v>208</v>
       </c>
       <c r="E320">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -6776,16 +6799,16 @@
         <v>44</v>
       </c>
       <c r="C321" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D321" t="s">
         <v>209</v>
       </c>
       <c r="E321">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -6793,16 +6816,16 @@
         <v>44</v>
       </c>
       <c r="C322" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D322" t="s">
         <v>210</v>
       </c>
       <c r="E322">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -6810,16 +6833,16 @@
         <v>44</v>
       </c>
       <c r="C323" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D323" t="s">
         <v>211</v>
       </c>
       <c r="E323">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -6827,16 +6850,16 @@
         <v>44</v>
       </c>
       <c r="C324" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D324" t="s">
         <v>212</v>
       </c>
       <c r="E324">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -6844,16 +6867,16 @@
         <v>44</v>
       </c>
       <c r="C325" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D325" t="s">
         <v>213</v>
       </c>
       <c r="E325">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -6861,16 +6884,16 @@
         <v>44</v>
       </c>
       <c r="C326" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D326" t="s">
         <v>214</v>
       </c>
       <c r="E326">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -6878,16 +6901,16 @@
         <v>44</v>
       </c>
       <c r="C327" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D327" t="s">
         <v>215</v>
       </c>
       <c r="E327">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -6904,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -6921,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -6935,10 +6958,10 @@
         <v>218</v>
       </c>
       <c r="E330">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -6955,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -6972,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -6989,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -7003,10 +7026,10 @@
         <v>222</v>
       </c>
       <c r="E334">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -7023,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -7037,10 +7060,10 @@
         <v>224</v>
       </c>
       <c r="E336">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -7054,10 +7077,10 @@
         <v>225</v>
       </c>
       <c r="E337">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -7074,7 +7097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -7091,7 +7114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -7108,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -7125,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -7142,7 +7165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -7159,7 +7182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -7176,7 +7199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -7193,7 +7216,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -7201,16 +7224,16 @@
         <v>45</v>
       </c>
       <c r="C346" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D346" t="s">
         <v>234</v>
       </c>
       <c r="E346">
-        <v>3788</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -7218,118 +7241,118 @@
         <v>45</v>
       </c>
       <c r="C347" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D347" t="s">
         <v>235</v>
       </c>
       <c r="E347">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" t="s">
+        <v>45</v>
+      </c>
+      <c r="C348" t="s">
+        <v>49</v>
+      </c>
+      <c r="D348" t="s">
+        <v>236</v>
+      </c>
+      <c r="E348">
         <v>3788</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
-      <c r="A348" t="s">
-        <v>5</v>
-      </c>
-      <c r="B348" t="s">
-        <v>45</v>
-      </c>
-      <c r="C348" t="s">
-        <v>47</v>
-      </c>
-      <c r="D348" t="s">
-        <v>77</v>
-      </c>
-      <c r="E348">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349" t="s">
+        <v>45</v>
+      </c>
+      <c r="C349" t="s">
+        <v>49</v>
+      </c>
+      <c r="D349" t="s">
+        <v>81</v>
+      </c>
+      <c r="E349">
         <v>388</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
-      <c r="A349" t="s">
-        <v>5</v>
-      </c>
-      <c r="B349" t="s">
-        <v>45</v>
-      </c>
-      <c r="C349" t="s">
-        <v>47</v>
-      </c>
-      <c r="D349" t="s">
-        <v>78</v>
-      </c>
-      <c r="E349">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350" t="s">
+        <v>45</v>
+      </c>
+      <c r="C350" t="s">
+        <v>49</v>
+      </c>
+      <c r="D350" t="s">
+        <v>82</v>
+      </c>
+      <c r="E350">
         <v>84</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
-      <c r="A350" t="s">
-        <v>5</v>
-      </c>
-      <c r="B350" t="s">
-        <v>45</v>
-      </c>
-      <c r="C350" t="s">
-        <v>47</v>
-      </c>
-      <c r="D350" t="s">
-        <v>79</v>
-      </c>
-      <c r="E350">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" t="s">
+        <v>45</v>
+      </c>
+      <c r="C351" t="s">
+        <v>49</v>
+      </c>
+      <c r="D351" t="s">
+        <v>83</v>
+      </c>
+      <c r="E351">
         <v>1462</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
-      <c r="A351" t="s">
-        <v>5</v>
-      </c>
-      <c r="B351" t="s">
-        <v>45</v>
-      </c>
-      <c r="C351" t="s">
-        <v>47</v>
-      </c>
-      <c r="D351" t="s">
-        <v>80</v>
-      </c>
-      <c r="E351">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" t="s">
+        <v>45</v>
+      </c>
+      <c r="C352" t="s">
+        <v>49</v>
+      </c>
+      <c r="D352" t="s">
+        <v>84</v>
+      </c>
+      <c r="E352">
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
-      <c r="A352" t="s">
-        <v>5</v>
-      </c>
-      <c r="B352" t="s">
-        <v>45</v>
-      </c>
-      <c r="C352" t="s">
-        <v>47</v>
-      </c>
-      <c r="D352" t="s">
-        <v>81</v>
-      </c>
-      <c r="E352">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>5</v>
+      </c>
+      <c r="B353" t="s">
+        <v>45</v>
+      </c>
+      <c r="C353" t="s">
+        <v>49</v>
+      </c>
+      <c r="D353" t="s">
+        <v>85</v>
+      </c>
+      <c r="E353">
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
-      <c r="A353" t="s">
-        <v>5</v>
-      </c>
-      <c r="B353" t="s">
-        <v>45</v>
-      </c>
-      <c r="C353" t="s">
-        <v>47</v>
-      </c>
-      <c r="D353" t="s">
-        <v>82</v>
-      </c>
-      <c r="E353">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -7337,16 +7360,16 @@
         <v>45</v>
       </c>
       <c r="C354" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D354" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E354">
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -7354,84 +7377,84 @@
         <v>45</v>
       </c>
       <c r="C355" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D355" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>5</v>
+      </c>
+      <c r="B356" t="s">
+        <v>45</v>
+      </c>
+      <c r="C356" t="s">
+        <v>49</v>
+      </c>
+      <c r="D356" t="s">
+        <v>88</v>
+      </c>
+      <c r="E356">
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
-      <c r="A356" t="s">
-        <v>5</v>
-      </c>
-      <c r="B356" t="s">
-        <v>45</v>
-      </c>
-      <c r="C356" t="s">
-        <v>47</v>
-      </c>
-      <c r="D356" t="s">
-        <v>85</v>
-      </c>
-      <c r="E356">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" t="s">
+        <v>45</v>
+      </c>
+      <c r="C357" t="s">
+        <v>49</v>
+      </c>
+      <c r="D357" t="s">
+        <v>89</v>
+      </c>
+      <c r="E357">
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
-      <c r="A357" t="s">
-        <v>5</v>
-      </c>
-      <c r="B357" t="s">
-        <v>45</v>
-      </c>
-      <c r="C357" t="s">
-        <v>47</v>
-      </c>
-      <c r="D357" t="s">
-        <v>86</v>
-      </c>
-      <c r="E357">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>45</v>
+      </c>
+      <c r="C358" t="s">
+        <v>49</v>
+      </c>
+      <c r="D358" t="s">
+        <v>90</v>
+      </c>
+      <c r="E358">
         <v>63</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
-      <c r="A358" t="s">
-        <v>5</v>
-      </c>
-      <c r="B358" t="s">
-        <v>45</v>
-      </c>
-      <c r="C358" t="s">
-        <v>47</v>
-      </c>
-      <c r="D358" t="s">
-        <v>87</v>
-      </c>
-      <c r="E358">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>5</v>
+      </c>
+      <c r="B359" t="s">
+        <v>45</v>
+      </c>
+      <c r="C359" t="s">
+        <v>49</v>
+      </c>
+      <c r="D359" t="s">
+        <v>91</v>
+      </c>
+      <c r="E359">
         <v>152</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
-      <c r="A359" t="s">
-        <v>5</v>
-      </c>
-      <c r="B359" t="s">
-        <v>45</v>
-      </c>
-      <c r="C359" t="s">
-        <v>47</v>
-      </c>
-      <c r="D359" t="s">
-        <v>88</v>
-      </c>
-      <c r="E359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -7439,254 +7462,254 @@
         <v>45</v>
       </c>
       <c r="C360" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D360" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>5</v>
+      </c>
+      <c r="B361" t="s">
+        <v>45</v>
+      </c>
+      <c r="C361" t="s">
+        <v>49</v>
+      </c>
+      <c r="D361" t="s">
+        <v>93</v>
+      </c>
+      <c r="E361">
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
-      <c r="A361" t="s">
-        <v>5</v>
-      </c>
-      <c r="B361" t="s">
-        <v>45</v>
-      </c>
-      <c r="C361" t="s">
-        <v>47</v>
-      </c>
-      <c r="D361" t="s">
-        <v>90</v>
-      </c>
-      <c r="E361">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" t="s">
+        <v>45</v>
+      </c>
+      <c r="C362" t="s">
+        <v>49</v>
+      </c>
+      <c r="D362" t="s">
+        <v>94</v>
+      </c>
+      <c r="E362">
         <v>46</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
-      <c r="A362" t="s">
-        <v>5</v>
-      </c>
-      <c r="B362" t="s">
-        <v>45</v>
-      </c>
-      <c r="C362" t="s">
-        <v>47</v>
-      </c>
-      <c r="D362" t="s">
-        <v>91</v>
-      </c>
-      <c r="E362">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" t="s">
+        <v>45</v>
+      </c>
+      <c r="C363" t="s">
+        <v>49</v>
+      </c>
+      <c r="D363" t="s">
+        <v>95</v>
+      </c>
+      <c r="E363">
         <v>36</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
-      <c r="A363" t="s">
-        <v>5</v>
-      </c>
-      <c r="B363" t="s">
-        <v>45</v>
-      </c>
-      <c r="C363" t="s">
-        <v>47</v>
-      </c>
-      <c r="D363" t="s">
-        <v>92</v>
-      </c>
-      <c r="E363">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s">
+        <v>45</v>
+      </c>
+      <c r="C364" t="s">
+        <v>49</v>
+      </c>
+      <c r="D364" t="s">
+        <v>96</v>
+      </c>
+      <c r="E364">
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
-      <c r="A364" t="s">
-        <v>5</v>
-      </c>
-      <c r="B364" t="s">
-        <v>45</v>
-      </c>
-      <c r="C364" t="s">
-        <v>47</v>
-      </c>
-      <c r="D364" t="s">
-        <v>93</v>
-      </c>
-      <c r="E364">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" t="s">
+        <v>45</v>
+      </c>
+      <c r="C365" t="s">
+        <v>49</v>
+      </c>
+      <c r="D365" t="s">
+        <v>97</v>
+      </c>
+      <c r="E365">
         <v>39</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
-      <c r="A365" t="s">
-        <v>5</v>
-      </c>
-      <c r="B365" t="s">
-        <v>45</v>
-      </c>
-      <c r="C365" t="s">
-        <v>47</v>
-      </c>
-      <c r="D365" t="s">
-        <v>94</v>
-      </c>
-      <c r="E365">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" t="s">
+        <v>45</v>
+      </c>
+      <c r="C366" t="s">
+        <v>49</v>
+      </c>
+      <c r="D366" t="s">
+        <v>98</v>
+      </c>
+      <c r="E366">
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
-      <c r="A366" t="s">
-        <v>5</v>
-      </c>
-      <c r="B366" t="s">
-        <v>45</v>
-      </c>
-      <c r="C366" t="s">
-        <v>47</v>
-      </c>
-      <c r="D366" t="s">
-        <v>95</v>
-      </c>
-      <c r="E366">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" t="s">
+        <v>45</v>
+      </c>
+      <c r="C367" t="s">
+        <v>49</v>
+      </c>
+      <c r="D367" t="s">
+        <v>99</v>
+      </c>
+      <c r="E367">
         <v>458</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
-      <c r="A367" t="s">
-        <v>5</v>
-      </c>
-      <c r="B367" t="s">
-        <v>45</v>
-      </c>
-      <c r="C367" t="s">
-        <v>47</v>
-      </c>
-      <c r="D367" t="s">
-        <v>96</v>
-      </c>
-      <c r="E367">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" t="s">
+        <v>45</v>
+      </c>
+      <c r="C368" t="s">
+        <v>49</v>
+      </c>
+      <c r="D368" t="s">
+        <v>100</v>
+      </c>
+      <c r="E368">
         <v>198</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
-      <c r="A368" t="s">
-        <v>5</v>
-      </c>
-      <c r="B368" t="s">
-        <v>45</v>
-      </c>
-      <c r="C368" t="s">
-        <v>47</v>
-      </c>
-      <c r="D368" t="s">
-        <v>97</v>
-      </c>
-      <c r="E368">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" t="s">
+        <v>45</v>
+      </c>
+      <c r="C369" t="s">
+        <v>49</v>
+      </c>
+      <c r="D369" t="s">
+        <v>101</v>
+      </c>
+      <c r="E369">
         <v>199</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
-      <c r="A369" t="s">
-        <v>5</v>
-      </c>
-      <c r="B369" t="s">
-        <v>45</v>
-      </c>
-      <c r="C369" t="s">
-        <v>47</v>
-      </c>
-      <c r="D369" t="s">
-        <v>98</v>
-      </c>
-      <c r="E369">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B370" t="s">
+        <v>45</v>
+      </c>
+      <c r="C370" t="s">
+        <v>49</v>
+      </c>
+      <c r="D370" t="s">
+        <v>102</v>
+      </c>
+      <c r="E370">
         <v>291</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
-      <c r="A370" t="s">
-        <v>5</v>
-      </c>
-      <c r="B370" t="s">
-        <v>45</v>
-      </c>
-      <c r="C370" t="s">
-        <v>47</v>
-      </c>
-      <c r="D370" t="s">
-        <v>99</v>
-      </c>
-      <c r="E370">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371" t="s">
+        <v>45</v>
+      </c>
+      <c r="C371" t="s">
+        <v>49</v>
+      </c>
+      <c r="D371" t="s">
+        <v>103</v>
+      </c>
+      <c r="E371">
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
-      <c r="A371" t="s">
-        <v>5</v>
-      </c>
-      <c r="B371" t="s">
-        <v>45</v>
-      </c>
-      <c r="C371" t="s">
-        <v>47</v>
-      </c>
-      <c r="D371" t="s">
-        <v>100</v>
-      </c>
-      <c r="E371">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" t="s">
+        <v>45</v>
+      </c>
+      <c r="C372" t="s">
+        <v>49</v>
+      </c>
+      <c r="D372" t="s">
+        <v>104</v>
+      </c>
+      <c r="E372">
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
-      <c r="A372" t="s">
-        <v>5</v>
-      </c>
-      <c r="B372" t="s">
-        <v>45</v>
-      </c>
-      <c r="C372" t="s">
-        <v>47</v>
-      </c>
-      <c r="D372" t="s">
-        <v>101</v>
-      </c>
-      <c r="E372">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" t="s">
+        <v>45</v>
+      </c>
+      <c r="C373" t="s">
+        <v>49</v>
+      </c>
+      <c r="D373" t="s">
+        <v>105</v>
+      </c>
+      <c r="E373">
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
-      <c r="A373" t="s">
-        <v>5</v>
-      </c>
-      <c r="B373" t="s">
-        <v>45</v>
-      </c>
-      <c r="C373" t="s">
-        <v>47</v>
-      </c>
-      <c r="D373" t="s">
-        <v>102</v>
-      </c>
-      <c r="E373">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>45</v>
+      </c>
+      <c r="C374" t="s">
+        <v>49</v>
+      </c>
+      <c r="D374" t="s">
+        <v>106</v>
+      </c>
+      <c r="E374">
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
-      <c r="A374" t="s">
-        <v>5</v>
-      </c>
-      <c r="B374" t="s">
-        <v>45</v>
-      </c>
-      <c r="C374" t="s">
-        <v>47</v>
-      </c>
-      <c r="D374" t="s">
-        <v>103</v>
-      </c>
-      <c r="E374">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -7694,16 +7717,16 @@
         <v>45</v>
       </c>
       <c r="C375" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D375" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -7711,67 +7734,67 @@
         <v>45</v>
       </c>
       <c r="C376" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D376" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>5</v>
+      </c>
+      <c r="B377" t="s">
+        <v>45</v>
+      </c>
+      <c r="C377" t="s">
+        <v>49</v>
+      </c>
+      <c r="D377" t="s">
+        <v>109</v>
+      </c>
+      <c r="E377">
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
-      <c r="A377" t="s">
-        <v>5</v>
-      </c>
-      <c r="B377" t="s">
-        <v>45</v>
-      </c>
-      <c r="C377" t="s">
-        <v>47</v>
-      </c>
-      <c r="D377" t="s">
-        <v>106</v>
-      </c>
-      <c r="E377">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>45</v>
+      </c>
+      <c r="C378" t="s">
+        <v>49</v>
+      </c>
+      <c r="D378" t="s">
+        <v>110</v>
+      </c>
+      <c r="E378">
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
-      <c r="A378" t="s">
-        <v>5</v>
-      </c>
-      <c r="B378" t="s">
-        <v>45</v>
-      </c>
-      <c r="C378" t="s">
-        <v>47</v>
-      </c>
-      <c r="D378" t="s">
-        <v>107</v>
-      </c>
-      <c r="E378">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379" t="s">
+        <v>45</v>
+      </c>
+      <c r="C379" t="s">
+        <v>49</v>
+      </c>
+      <c r="D379" t="s">
+        <v>111</v>
+      </c>
+      <c r="E379">
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
-      <c r="A379" t="s">
-        <v>5</v>
-      </c>
-      <c r="B379" t="s">
-        <v>45</v>
-      </c>
-      <c r="C379" t="s">
-        <v>47</v>
-      </c>
-      <c r="D379" t="s">
-        <v>108</v>
-      </c>
-      <c r="E379">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -7779,50 +7802,50 @@
         <v>45</v>
       </c>
       <c r="C380" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D380" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E380">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>5</v>
+      </c>
+      <c r="B381" t="s">
+        <v>45</v>
+      </c>
+      <c r="C381" t="s">
+        <v>49</v>
+      </c>
+      <c r="D381" t="s">
+        <v>113</v>
+      </c>
+      <c r="E381">
         <v>111</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
-      <c r="A381" t="s">
-        <v>5</v>
-      </c>
-      <c r="B381" t="s">
-        <v>45</v>
-      </c>
-      <c r="C381" t="s">
-        <v>47</v>
-      </c>
-      <c r="D381" t="s">
-        <v>110</v>
-      </c>
-      <c r="E381">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" t="s">
+        <v>45</v>
+      </c>
+      <c r="C382" t="s">
+        <v>49</v>
+      </c>
+      <c r="D382" t="s">
+        <v>114</v>
+      </c>
+      <c r="E382">
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
-      <c r="A382" t="s">
-        <v>5</v>
-      </c>
-      <c r="B382" t="s">
-        <v>45</v>
-      </c>
-      <c r="C382" t="s">
-        <v>69</v>
-      </c>
-      <c r="D382" t="s">
-        <v>236</v>
-      </c>
-      <c r="E382">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -7830,16 +7853,16 @@
         <v>45</v>
       </c>
       <c r="C383" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D383" t="s">
         <v>237</v>
       </c>
       <c r="E383">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -7853,10 +7876,10 @@
         <v>238</v>
       </c>
       <c r="E384">
-        <v>3788</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -7864,16 +7887,16 @@
         <v>45</v>
       </c>
       <c r="C385" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D385" t="s">
         <v>239</v>
       </c>
       <c r="E385">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -7881,16 +7904,16 @@
         <v>45</v>
       </c>
       <c r="C386" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D386" t="s">
         <v>240</v>
       </c>
       <c r="E386">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -7898,16 +7921,16 @@
         <v>45</v>
       </c>
       <c r="C387" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D387" t="s">
         <v>241</v>
       </c>
       <c r="E387">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -7915,16 +7938,16 @@
         <v>45</v>
       </c>
       <c r="C388" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D388" t="s">
         <v>242</v>
       </c>
       <c r="E388">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -7938,10 +7961,10 @@
         <v>243</v>
       </c>
       <c r="E389">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -7949,16 +7972,16 @@
         <v>45</v>
       </c>
       <c r="C390" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D390" t="s">
         <v>244</v>
       </c>
       <c r="E390">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -7966,16 +7989,16 @@
         <v>45</v>
       </c>
       <c r="C391" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D391" t="s">
         <v>245</v>
       </c>
       <c r="E391">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -7983,16 +8006,16 @@
         <v>45</v>
       </c>
       <c r="C392" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D392" t="s">
         <v>246</v>
       </c>
       <c r="E392">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -8000,16 +8023,16 @@
         <v>45</v>
       </c>
       <c r="C393" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D393" t="s">
         <v>247</v>
       </c>
       <c r="E393">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -8017,16 +8040,16 @@
         <v>45</v>
       </c>
       <c r="C394" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D394" t="s">
         <v>248</v>
       </c>
       <c r="E394">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -8034,16 +8057,16 @@
         <v>45</v>
       </c>
       <c r="C395" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D395" t="s">
         <v>249</v>
       </c>
       <c r="E395">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -8051,16 +8074,16 @@
         <v>45</v>
       </c>
       <c r="C396" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D396" t="s">
         <v>250</v>
       </c>
       <c r="E396">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -8068,16 +8091,16 @@
         <v>45</v>
       </c>
       <c r="C397" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D397" t="s">
         <v>251</v>
       </c>
       <c r="E397">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -8085,16 +8108,16 @@
         <v>45</v>
       </c>
       <c r="C398" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D398" t="s">
         <v>252</v>
       </c>
       <c r="E398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -8102,16 +8125,16 @@
         <v>45</v>
       </c>
       <c r="C399" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D399" t="s">
         <v>253</v>
       </c>
       <c r="E399">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -8119,16 +8142,16 @@
         <v>45</v>
       </c>
       <c r="C400" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D400" t="s">
         <v>254</v>
       </c>
       <c r="E400">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -8136,16 +8159,16 @@
         <v>45</v>
       </c>
       <c r="C401" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D401" t="s">
         <v>255</v>
       </c>
       <c r="E401">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -8153,16 +8176,16 @@
         <v>45</v>
       </c>
       <c r="C402" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D402" t="s">
         <v>256</v>
       </c>
       <c r="E402">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -8170,16 +8193,16 @@
         <v>45</v>
       </c>
       <c r="C403" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D403" t="s">
         <v>257</v>
       </c>
       <c r="E403">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -8187,16 +8210,16 @@
         <v>45</v>
       </c>
       <c r="C404" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D404" t="s">
         <v>258</v>
       </c>
       <c r="E404">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -8204,16 +8227,16 @@
         <v>45</v>
       </c>
       <c r="C405" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D405" t="s">
         <v>259</v>
       </c>
       <c r="E405">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -8221,16 +8244,16 @@
         <v>45</v>
       </c>
       <c r="C406" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D406" t="s">
         <v>260</v>
       </c>
       <c r="E406">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -8238,16 +8261,16 @@
         <v>45</v>
       </c>
       <c r="C407" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D407" t="s">
         <v>261</v>
       </c>
       <c r="E407">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>5</v>
       </c>
@@ -8255,16 +8278,16 @@
         <v>45</v>
       </c>
       <c r="C408" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D408" t="s">
         <v>262</v>
       </c>
       <c r="E408">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>5</v>
       </c>
@@ -8272,16 +8295,16 @@
         <v>45</v>
       </c>
       <c r="C409" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D409" t="s">
         <v>263</v>
       </c>
       <c r="E409">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -8289,16 +8312,16 @@
         <v>45</v>
       </c>
       <c r="C410" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D410" t="s">
         <v>264</v>
       </c>
       <c r="E410">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -8306,16 +8329,16 @@
         <v>45</v>
       </c>
       <c r="C411" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D411" t="s">
         <v>265</v>
       </c>
       <c r="E411">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>5</v>
       </c>
@@ -8323,16 +8346,16 @@
         <v>45</v>
       </c>
       <c r="C412" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D412" t="s">
         <v>266</v>
       </c>
       <c r="E412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>5</v>
       </c>
@@ -8340,16 +8363,16 @@
         <v>45</v>
       </c>
       <c r="C413" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D413" t="s">
         <v>267</v>
       </c>
       <c r="E413">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>5</v>
       </c>
@@ -8357,16 +8380,16 @@
         <v>45</v>
       </c>
       <c r="C414" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D414" t="s">
         <v>268</v>
       </c>
       <c r="E414">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -8374,16 +8397,16 @@
         <v>45</v>
       </c>
       <c r="C415" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D415" t="s">
         <v>269</v>
       </c>
       <c r="E415">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>5</v>
       </c>
@@ -8391,16 +8414,16 @@
         <v>45</v>
       </c>
       <c r="C416" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D416" t="s">
         <v>270</v>
       </c>
       <c r="E416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -8408,16 +8431,16 @@
         <v>45</v>
       </c>
       <c r="C417" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D417" t="s">
         <v>271</v>
       </c>
       <c r="E417">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -8425,16 +8448,16 @@
         <v>45</v>
       </c>
       <c r="C418" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D418" t="s">
         <v>272</v>
       </c>
       <c r="E418">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -8442,16 +8465,16 @@
         <v>45</v>
       </c>
       <c r="C419" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D419" t="s">
         <v>273</v>
       </c>
       <c r="E419">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>5</v>
       </c>
@@ -8459,16 +8482,16 @@
         <v>45</v>
       </c>
       <c r="C420" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D420" t="s">
         <v>274</v>
       </c>
       <c r="E420">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -8476,16 +8499,16 @@
         <v>45</v>
       </c>
       <c r="C421" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D421" t="s">
         <v>275</v>
       </c>
       <c r="E421">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -8493,16 +8516,16 @@
         <v>45</v>
       </c>
       <c r="C422" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D422" t="s">
         <v>276</v>
       </c>
       <c r="E422">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -8510,16 +8533,16 @@
         <v>45</v>
       </c>
       <c r="C423" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D423" t="s">
         <v>277</v>
       </c>
       <c r="E423">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -8527,16 +8550,16 @@
         <v>45</v>
       </c>
       <c r="C424" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D424" t="s">
         <v>278</v>
       </c>
       <c r="E424">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>5</v>
       </c>
@@ -8544,16 +8567,16 @@
         <v>45</v>
       </c>
       <c r="C425" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D425" t="s">
         <v>279</v>
       </c>
       <c r="E425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -8561,16 +8584,16 @@
         <v>45</v>
       </c>
       <c r="C426" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D426" t="s">
         <v>280</v>
       </c>
       <c r="E426">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>5</v>
       </c>
@@ -8578,16 +8601,16 @@
         <v>45</v>
       </c>
       <c r="C427" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D427" t="s">
         <v>281</v>
       </c>
       <c r="E427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -8595,16 +8618,16 @@
         <v>45</v>
       </c>
       <c r="C428" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D428" t="s">
         <v>282</v>
       </c>
       <c r="E428">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -8612,16 +8635,16 @@
         <v>45</v>
       </c>
       <c r="C429" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D429" t="s">
         <v>283</v>
       </c>
       <c r="E429">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -8629,7 +8652,7 @@
         <v>45</v>
       </c>
       <c r="C430" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D430" t="s">
         <v>284</v>
@@ -8638,7 +8661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>5</v>
       </c>
@@ -8646,16 +8669,16 @@
         <v>45</v>
       </c>
       <c r="C431" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D431" t="s">
         <v>285</v>
       </c>
       <c r="E431">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>5</v>
       </c>
@@ -8663,16 +8686,16 @@
         <v>45</v>
       </c>
       <c r="C432" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D432" t="s">
         <v>286</v>
       </c>
       <c r="E432">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>5</v>
       </c>
@@ -8680,16 +8703,16 @@
         <v>45</v>
       </c>
       <c r="C433" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D433" t="s">
         <v>287</v>
       </c>
       <c r="E433">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -8697,16 +8720,16 @@
         <v>45</v>
       </c>
       <c r="C434" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D434" t="s">
         <v>288</v>
       </c>
       <c r="E434">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -8714,16 +8737,16 @@
         <v>45</v>
       </c>
       <c r="C435" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D435" t="s">
         <v>289</v>
       </c>
       <c r="E435">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>5</v>
       </c>
@@ -8737,10 +8760,10 @@
         <v>290</v>
       </c>
       <c r="E436">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>5</v>
       </c>
@@ -8748,7 +8771,7 @@
         <v>45</v>
       </c>
       <c r="C437" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D437" t="s">
         <v>291</v>
@@ -8757,7 +8780,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -8765,7 +8788,7 @@
         <v>45</v>
       </c>
       <c r="C438" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D438" t="s">
         <v>292</v>
@@ -8774,7 +8797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -8782,7 +8805,7 @@
         <v>45</v>
       </c>
       <c r="C439" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D439" t="s">
         <v>293</v>
@@ -8791,7 +8814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>5</v>
       </c>
@@ -8799,7 +8822,7 @@
         <v>45</v>
       </c>
       <c r="C440" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D440" t="s">
         <v>294</v>
@@ -8808,7 +8831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>5</v>
       </c>
@@ -8816,7 +8839,7 @@
         <v>45</v>
       </c>
       <c r="C441" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D441" t="s">
         <v>295</v>
@@ -8825,7 +8848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>5</v>
       </c>
@@ -8842,7 +8865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>5</v>
       </c>
@@ -8850,16 +8873,16 @@
         <v>46</v>
       </c>
       <c r="C443" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D443" t="s">
         <v>297</v>
       </c>
       <c r="E443">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>5</v>
       </c>
@@ -8867,16 +8890,16 @@
         <v>46</v>
       </c>
       <c r="C444" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D444" t="s">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="E444">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>5</v>
       </c>
@@ -8884,16 +8907,16 @@
         <v>46</v>
       </c>
       <c r="C445" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D445" t="s">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="E445">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>5</v>
       </c>
@@ -8901,16 +8924,16 @@
         <v>46</v>
       </c>
       <c r="C446" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D446" t="s">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="E446">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>5</v>
       </c>
@@ -8918,16 +8941,16 @@
         <v>46</v>
       </c>
       <c r="C447" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D447" t="s">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="E447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>5</v>
       </c>
@@ -8935,16 +8958,16 @@
         <v>46</v>
       </c>
       <c r="C448" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D448" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="E448">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>5</v>
       </c>
@@ -8952,16 +8975,16 @@
         <v>46</v>
       </c>
       <c r="C449" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D449" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="E449">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>5</v>
       </c>
@@ -8969,16 +8992,16 @@
         <v>46</v>
       </c>
       <c r="C450" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D450" t="s">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="E450">
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -8986,16 +9009,16 @@
         <v>46</v>
       </c>
       <c r="C451" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D451" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="E451">
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>5</v>
       </c>
@@ -9003,16 +9026,16 @@
         <v>46</v>
       </c>
       <c r="C452" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D452" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="E452">
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>5</v>
       </c>
@@ -9020,16 +9043,16 @@
         <v>46</v>
       </c>
       <c r="C453" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D453" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="E453">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -9037,16 +9060,16 @@
         <v>46</v>
       </c>
       <c r="C454" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D454" t="s">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="E454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -9054,16 +9077,16 @@
         <v>46</v>
       </c>
       <c r="C455" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D455" t="s">
-        <v>96</v>
+        <v>309</v>
       </c>
       <c r="E455">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -9071,16 +9094,16 @@
         <v>46</v>
       </c>
       <c r="C456" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D456" t="s">
-        <v>97</v>
+        <v>310</v>
       </c>
       <c r="E456">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>5</v>
       </c>
@@ -9088,16 +9111,16 @@
         <v>46</v>
       </c>
       <c r="C457" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D457" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
       <c r="E457">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>5</v>
       </c>
@@ -9105,16 +9128,16 @@
         <v>46</v>
       </c>
       <c r="C458" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D458" t="s">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="E458">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>5</v>
       </c>
@@ -9122,16 +9145,16 @@
         <v>46</v>
       </c>
       <c r="C459" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D459" t="s">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="E459">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>5</v>
       </c>
@@ -9139,16 +9162,16 @@
         <v>46</v>
       </c>
       <c r="C460" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D460" t="s">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="E460">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -9156,16 +9179,16 @@
         <v>46</v>
       </c>
       <c r="C461" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D461" t="s">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="E461">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -9173,16 +9196,16 @@
         <v>46</v>
       </c>
       <c r="C462" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D462" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="E462">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>5</v>
       </c>
@@ -9190,16 +9213,16 @@
         <v>46</v>
       </c>
       <c r="C463" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D463" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>5</v>
       </c>
@@ -9207,16 +9230,16 @@
         <v>46</v>
       </c>
       <c r="C464" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D464" t="s">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="E464">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -9224,16 +9247,16 @@
         <v>46</v>
       </c>
       <c r="C465" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D465" t="s">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="E465">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -9241,16 +9264,16 @@
         <v>46</v>
       </c>
       <c r="C466" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D466" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="E466">
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>5</v>
       </c>
@@ -9258,16 +9281,16 @@
         <v>46</v>
       </c>
       <c r="C467" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D467" t="s">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="E467">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>5</v>
       </c>
@@ -9275,16 +9298,16 @@
         <v>46</v>
       </c>
       <c r="C468" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D468" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="E468">
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -9292,16 +9315,16 @@
         <v>46</v>
       </c>
       <c r="C469" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D469" t="s">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="E469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -9309,16 +9332,16 @@
         <v>46</v>
       </c>
       <c r="C470" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D470" t="s">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="E470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>5</v>
       </c>
@@ -9326,16 +9349,16 @@
         <v>46</v>
       </c>
       <c r="C471" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D471" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="E471">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>5</v>
       </c>
@@ -9343,16 +9366,16 @@
         <v>46</v>
       </c>
       <c r="C472" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D472" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="E472">
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -9360,16 +9383,16 @@
         <v>46</v>
       </c>
       <c r="C473" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D473" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="E473">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>5</v>
       </c>
@@ -9377,16 +9400,16 @@
         <v>46</v>
       </c>
       <c r="C474" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D474" t="s">
-        <v>308</v>
+        <v>100</v>
       </c>
       <c r="E474">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -9394,16 +9417,16 @@
         <v>46</v>
       </c>
       <c r="C475" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D475" t="s">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="E475">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>5</v>
       </c>
@@ -9411,16 +9434,16 @@
         <v>46</v>
       </c>
       <c r="C476" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D476" t="s">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="E476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>5</v>
       </c>
@@ -9428,16 +9451,16 @@
         <v>46</v>
       </c>
       <c r="C477" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D477" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="E477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>5</v>
       </c>
@@ -9445,16 +9468,16 @@
         <v>46</v>
       </c>
       <c r="C478" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D478" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="E478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>5</v>
       </c>
@@ -9462,16 +9485,16 @@
         <v>46</v>
       </c>
       <c r="C479" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D479" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
       <c r="E479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>5</v>
       </c>
@@ -9479,16 +9502,16 @@
         <v>46</v>
       </c>
       <c r="C480" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D480" t="s">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="E480">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>5</v>
       </c>
@@ -9496,16 +9519,16 @@
         <v>46</v>
       </c>
       <c r="C481" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D481" t="s">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="E481">
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>5</v>
       </c>
@@ -9513,16 +9536,17 @@
         <v>46</v>
       </c>
       <c r="C482" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D482" t="s">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="E482">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>